--- a/level-2/uri/phase-2-4/uri-phase-2-4.xlsx
+++ b/level-2/uri/phase-2-4/uri-phase-2-4.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBB7C7-E13D-40ED-B770-C9A43ECBB3E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E8918D-3A23-43AE-B5CE-9353BBD0495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 2-4" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 2-4" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -751,6 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,78 +794,12 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
@@ -1442,52 +1392,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
         <v>#DIV/0!</v>
@@ -1517,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
+        <f>COUNTA(J4:J834)</f>
         <v>160</v>
       </c>
     </row>
@@ -3806,7 +3756,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J114" s="23" t="s">
+      <c r="J114" s="14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3826,7 +3776,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J115" s="23" t="s">
+      <c r="J115" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3846,7 +3796,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J116" s="23" t="s">
+      <c r="J116" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3866,7 +3816,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J117" s="23" t="s">
+      <c r="J117" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3886,7 +3836,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J118" s="23" t="s">
+      <c r="J118" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4666,7 +4616,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J157" s="23" t="s">
+      <c r="J157" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4686,7 +4636,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J158" s="23" t="s">
+      <c r="J158" s="14" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4706,7 +4656,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J159" s="23" t="s">
+      <c r="J159" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4726,7 +4676,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J160" s="23" t="s">
+      <c r="J160" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4746,7 +4696,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J161" s="23" t="s">
+      <c r="J161" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4766,7 +4716,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J162" s="23" t="s">
+      <c r="J162" s="14" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4786,7 +4736,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J163" s="23" t="s">
+      <c r="J163" s="14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5016,163 +4966,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J164:J168">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J35">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:J55 J57:J58">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:J58">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J105 J107:J110">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J111">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119:J125">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J156">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
